--- a/Test Data/HCM Employee Relations/HCM_AddressUpdate_0141.xlsx
+++ b/Test Data/HCM Employee Relations/HCM_AddressUpdate_0141.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OracleATS\OFT\Maaden\Test Data\HCM Employee Relations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FD674-714A-4603-8BE4-03946816C2A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58443403-0BE3-4B22-BB1F-18D5D07D27D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDE52EBF-C34A-44E8-A19F-627BCDE4ABAD}"/>
+    <workbookView xWindow="2208" yWindow="2760" windowWidth="20832" windowHeight="9600" xr2:uid="{EDE52EBF-C34A-44E8-A19F-627BCDE4ABAD}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet" sheetId="1" r:id="rId1"/>
@@ -1020,10 +1020,10 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>Rina Kumari</t>
-  </si>
-  <si>
     <t>Chand</t>
+  </si>
+  <si>
+    <t>Rina</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,13 +1590,13 @@
         <v>12</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>324</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>325</v>
